--- a/Fall2015/2015 CSEC GBM 3 [10-21].xlsx
+++ b/Fall2015/2015 CSEC GBM 3 [10-21].xlsx
@@ -1,12 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26709"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfleming/Dropbox/GeneralBody/Fall2015/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="11740" tabRatio="500"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -196,41 +209,53 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
-    <font/>
     <font>
-      <u/>
-      <sz val="10.0"/>
-      <color rgb="FF0000FF"/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
-      <color rgb="FF1155CC"/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="5">
@@ -238,7 +263,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -265,115 +290,348 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="27">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="20.29"/>
-    <col customWidth="1" min="5" max="5" width="24.14"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -388,13 +646,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6"/>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="7">
-        <v>42298.0</v>
+        <v>42298</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="9" t="s">
@@ -404,13 +662,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="7">
-        <v>42312.0</v>
+        <v>42312</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="11"/>
@@ -418,7 +676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -428,7 +686,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
         <v>10</v>
       </c>
@@ -442,7 +700,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="16"/>
       <c r="B6" s="17"/>
       <c r="C6" s="12"/>
@@ -453,7 +711,7 @@
       </c>
       <c r="G6" s="10"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="19" t="s">
         <v>13</v>
       </c>
@@ -470,7 +728,7 @@
       </c>
       <c r="G7" s="10"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="6"/>
@@ -483,7 +741,7 @@
       </c>
       <c r="G8" s="10"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19" t="s">
         <v>19</v>
       </c>
@@ -498,7 +756,7 @@
       </c>
       <c r="G9" s="10"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="22" t="s">
         <v>22</v>
       </c>
@@ -510,7 +768,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="20" t="s">
         <v>24</v>
       </c>
@@ -525,7 +783,7 @@
       </c>
       <c r="G11" s="10"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="23"/>
       <c r="B12" s="6"/>
       <c r="C12" s="12"/>
@@ -538,7 +796,7 @@
       </c>
       <c r="G12" s="10"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="6"/>
       <c r="C13" s="12"/>
@@ -550,7 +808,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="24"/>
       <c r="C14" s="24"/>
@@ -560,62 +818,62 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E15" s="26"/>
       <c r="F15" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F16" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E17" s="26"/>
       <c r="F17" s="21" t="s">
         <v>34</v>
       </c>
       <c r="G17" s="10"/>
     </row>
-    <row r="18">
+    <row r="18" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E18" s="26" t="s">
         <v>35</v>
       </c>
       <c r="F18" s="10"/>
     </row>
-    <row r="19">
+    <row r="19" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E19" s="10"/>
       <c r="F19" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F20" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E21" s="26" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F22" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F23" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F24" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E25" s="26" t="s">
         <v>42</v>
       </c>
@@ -623,7 +881,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E26" s="26" t="s">
         <v>44</v>
       </c>
@@ -631,17 +889,17 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F27" s="21" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F28" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E29" s="26" t="s">
         <v>48</v>
       </c>
@@ -649,27 +907,27 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F30" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F31" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F32" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F33" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E34" s="26" t="s">
         <v>53</v>
       </c>
@@ -677,17 +935,17 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F35" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F36" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="5:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E37" s="26" t="s">
         <v>57</v>
       </c>
@@ -700,17 +958,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B7"/>
-    <hyperlink r:id="rId2" ref="F7"/>
-    <hyperlink r:id="rId3" ref="F9"/>
-    <hyperlink r:id="rId4" ref="A10"/>
-    <hyperlink r:id="rId5" ref="F10"/>
-    <hyperlink r:id="rId6" ref="A11"/>
-    <hyperlink r:id="rId7" ref="F11"/>
-    <hyperlink r:id="rId8" ref="F17"/>
-    <hyperlink r:id="rId9" ref="F27"/>
-    <hyperlink r:id="rId10" ref="G37"/>
+    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="F7" r:id="rId2"/>
+    <hyperlink ref="F9" r:id="rId3"/>
+    <hyperlink ref="A10" r:id="rId4"/>
+    <hyperlink ref="F10" r:id="rId5"/>
+    <hyperlink ref="A11" r:id="rId6"/>
+    <hyperlink ref="F11" r:id="rId7"/>
+    <hyperlink ref="F17" r:id="rId8"/>
+    <hyperlink ref="F27" r:id="rId9"/>
+    <hyperlink ref="G37" r:id="rId10"/>
   </hyperlinks>
-  <drawing r:id="rId11"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>